--- a/Data_Analytics/Data/expense1.xlsx
+++ b/Data_Analytics/Data/expense1.xlsx
@@ -27,33 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Account_type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Income/Expense</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
     <t>Account</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>Income/Expense</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Currency</t>
   </si>
   <si>
     <t>CUB - online payment</t>
@@ -1291,7 +1294,7 @@
   <dimension ref="A1:K278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1333,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1341,19 +1344,19 @@
         <v>44595.4243055556</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -1370,19 +1373,19 @@
         <v>44595.4243055556</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>300</v>
@@ -1399,19 +1402,19 @@
         <v>44564.8263888889</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>78</v>
@@ -1428,19 +1431,19 @@
         <v>44564.7888888889</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>30</v>
@@ -1457,19 +1460,19 @@
         <v>44564.7652777778</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>67</v>
@@ -1486,19 +1489,19 @@
         <v>44564.7652777778</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>100</v>
@@ -1515,19 +1518,19 @@
         <v>44564.7645833333</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>500</v>
@@ -1541,22 +1544,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>339.15</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>339.15</v>
@@ -1570,22 +1573,22 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>200</v>
@@ -1599,22 +1602,22 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>243</v>
@@ -1628,19 +1631,19 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>25</v>
@@ -1654,22 +1657,22 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>1500</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>1500</v>
@@ -1683,22 +1686,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -1712,19 +1715,19 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <v>1700</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <v>1700</v>
@@ -2014,22 +2017,22 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E278" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F278">
         <v>2000</v>
       </c>
       <c r="G278" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I278">
         <v>2000</v>
